--- a/HT-6/Optica BAC-03-Ficha tecnica de un canal.xlsx
+++ b/HT-6/Optica BAC-03-Ficha tecnica de un canal.xlsx
@@ -1,27 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F11C73-3B87-1747-A370-38A7B5DD959E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4A2CB4-6155-7946-86B5-723FA5E98D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-5900" windowWidth="38400" windowHeight="21100" activeTab="8" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="11" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
   <sheets>
     <sheet name="BAC-03-1" sheetId="1" r:id="rId1"/>
     <sheet name="BAC-03-2" sheetId="7" r:id="rId2"/>
     <sheet name="BAC-03-3" sheetId="8" r:id="rId3"/>
     <sheet name="BAC-03-4" sheetId="9" r:id="rId4"/>
-    <sheet name="BAC-03-5" sheetId="10" r:id="rId5"/>
-    <sheet name="BAC-03-5 (2)" sheetId="16" r:id="rId6"/>
-    <sheet name="BAC-03-6" sheetId="11" r:id="rId7"/>
-    <sheet name="BAC-03-7" sheetId="13" r:id="rId8"/>
-    <sheet name="BAC-03-8" sheetId="14" r:id="rId9"/>
+    <sheet name="BAC-03-4 (2)" sheetId="17" r:id="rId5"/>
+    <sheet name="BAC-03-4 (3)" sheetId="18" r:id="rId6"/>
+    <sheet name="BAC-03-5" sheetId="10" r:id="rId7"/>
+    <sheet name="BAC-03-5 (2)" sheetId="16" r:id="rId8"/>
+    <sheet name="BAC-03-5 (3)" sheetId="19" r:id="rId9"/>
+    <sheet name="BAC-03-6" sheetId="11" r:id="rId10"/>
+    <sheet name="BAC-03-6 (2)" sheetId="20" r:id="rId11"/>
+    <sheet name="BAC-03-6 (3)" sheetId="21" r:id="rId12"/>
+    <sheet name="BAC-03-7" sheetId="13" r:id="rId13"/>
+    <sheet name="BAC-03-8" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="80">
   <si>
     <t>Nombre</t>
   </si>
@@ -228,6 +233,60 @@
   </si>
   <si>
     <t>Modificación de las monturas</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>Permitirle al cliente observar las monturas en el canal digital</t>
+  </si>
+  <si>
+    <t>Canal digital de compra (monturas)</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>Canal digital de compra (lentes)</t>
+  </si>
+  <si>
+    <t>Se le permite al cliente calcular el costo de fabricación de unos lentes con una formulacion determinada o con unas especificaciones determinadas (lentes de sol, lentes transition, etc)</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>Entrega y distribución de producto a domicilio</t>
+  </si>
+  <si>
+    <t>Enviar el producto al domicilio del cliente</t>
+  </si>
+  <si>
+    <t>Notificarle al cliente que su producto ha arribado</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Cobro a los compradores online</t>
+  </si>
+  <si>
+    <t>Permite al empleado hacer el pago de los productos comprados con tarjeta online</t>
+  </si>
+  <si>
+    <t>PSE, Sistema informático</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>Cobro por examen visual</t>
+  </si>
+  <si>
+    <t>Permite al empleado hacer el pago del examen visual que se haya hecho.</t>
+  </si>
+  <si>
+    <t>Datáfono, caja registradora</t>
   </si>
 </sst>
 </file>
@@ -324,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -354,6 +413,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,7 +435,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -671,7 +734,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A10" sqref="A10:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -819,12 +882,671 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0CEC55-42F1-4C9D-94B6-0A3DC2619C0F}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="4" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.15">
+      <c r="A10" s="6">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A11" s="6">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28CA297A-DFAD-F941-9B5A-546B6663987E}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="4" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="A10" s="6">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A11" s="6">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C12F0FD-F737-9A42-A6A4-0C03FCEA67E5}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="4" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="A10" s="10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BAD743F-5732-48A8-9B15-61A983AA847C}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="4" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.15">
+      <c r="A10" s="6">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.15">
+      <c r="A11" s="6">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01BD858-72F0-4803-BCED-49D604DC8C85}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="4" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="A10" s="6">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="A11" s="6">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.15">
+      <c r="A12" s="6">
+        <v>3</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692DA9A4-5D1E-40C9-8FE0-6DBF8AAC097A}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A10" sqref="A10:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1084,7 +1806,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="166" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1207,11 +1929,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E140821C-16ED-41F3-BBD2-5EE5717C381F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9EC673-7EF4-9946-BA7A-7D81DD7F10B8}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" zoomScale="166" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1244,15 +1966,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -1261,7 +1983,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1281,35 +2003,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.15">
-      <c r="A10" s="6">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
         <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A11" s="6">
+      <c r="D10" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A11" s="10">
         <v>2</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>28</v>
+      <c r="B11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -1334,6 +2056,260 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E07AD1-F466-1843-9760-910D78E60074}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="166" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="4" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="105" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="13" customFormat="1" ht="105" x14ac:dyDescent="0.15">
+      <c r="A11" s="6">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E140821C-16ED-41F3-BBD2-5EE5717C381F}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="4" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.15">
+      <c r="A10" s="6">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A11" s="6">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC23699-5522-D349-A5C8-F5BF9DDF1F2E}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -1446,12 +2422,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0CEC55-42F1-4C9D-94B6-0A3DC2619C0F}">
-  <dimension ref="A1:D17"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E988B337-8F6A-7845-BD18-67FB58861DAB}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1484,15 +2460,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -1501,7 +2477,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1521,18 +2497,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.15">
@@ -1540,20 +2516,20 @@
         <v>2</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
@@ -1561,262 +2537,6 @@
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BAD743F-5732-48A8-9B15-61A983AA847C}">
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="8.33203125" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="4" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.15">
-      <c r="A10" s="6">
-        <v>1</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.15">
-      <c r="A11" s="6">
-        <v>2</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01BD858-72F0-4803-BCED-49D604DC8C85}">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="8.33203125" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="4" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.15">
-      <c r="A10" s="6">
-        <v>1</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.15">
-      <c r="A11" s="6">
-        <v>2</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.15">
-      <c r="A12" s="6">
-        <v>3</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/HT-6/Optica BAC-03-Ficha tecnica de un canal.xlsx
+++ b/HT-6/Optica BAC-03-Ficha tecnica de un canal.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chech\Documents\GitHub\p3\arquiemp\HT-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4A2CB4-6155-7946-86B5-723FA5E98D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA0A404-1648-4B4F-A37C-9CE71A9EDDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="11" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="5" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
   <sheets>
     <sheet name="BAC-03-1" sheetId="1" r:id="rId1"/>
     <sheet name="BAC-03-2" sheetId="7" r:id="rId2"/>
     <sheet name="BAC-03-3" sheetId="8" r:id="rId3"/>
     <sheet name="BAC-03-4" sheetId="9" r:id="rId4"/>
-    <sheet name="BAC-03-4 (2)" sheetId="17" r:id="rId5"/>
-    <sheet name="BAC-03-4 (3)" sheetId="18" r:id="rId6"/>
+    <sheet name="BAC-03-4 (1)" sheetId="17" r:id="rId5"/>
+    <sheet name="BAC-03-4 (2)" sheetId="18" r:id="rId6"/>
     <sheet name="BAC-03-5" sheetId="10" r:id="rId7"/>
     <sheet name="BAC-03-5 (2)" sheetId="16" r:id="rId8"/>
     <sheet name="BAC-03-5 (3)" sheetId="19" r:id="rId9"/>
@@ -383,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -413,10 +413,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,36 +729,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDEE2F-9DA5-4F4F-A9BF-B9BEA22ACD0E}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="150" workbookViewId="0">
       <selection activeCell="A10" sqref="A10:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -770,7 +766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -779,7 +775,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -787,10 +783,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
@@ -804,7 +800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>1</v>
       </c>
@@ -818,7 +814,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>2</v>
       </c>
@@ -832,7 +828,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>3</v>
       </c>
@@ -846,31 +842,31 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -890,32 +886,32 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -923,7 +919,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -932,7 +928,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -940,10 +936,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
@@ -957,7 +953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="56" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>1</v>
       </c>
@@ -971,7 +967,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>2</v>
       </c>
@@ -985,37 +981,37 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1035,32 +1031,32 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -1068,7 +1064,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -1077,7 +1073,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1085,10 +1081,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
@@ -1102,7 +1098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>1</v>
       </c>
@@ -1116,7 +1112,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>2</v>
       </c>
@@ -1130,37 +1126,37 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1176,36 +1172,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C12F0FD-F737-9A42-A6A4-0C03FCEA67E5}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="150" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -1213,7 +1209,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -1222,7 +1218,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1230,10 +1226,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
@@ -1247,7 +1243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>1</v>
       </c>
@@ -1261,43 +1257,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1317,32 +1313,32 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -1350,7 +1346,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -1359,7 +1355,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1367,10 +1363,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
@@ -1384,7 +1380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="56" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>1</v>
       </c>
@@ -1398,7 +1394,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>2</v>
       </c>
@@ -1426,32 +1422,32 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -1459,7 +1455,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -1468,7 +1464,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1476,10 +1472,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
@@ -1493,7 +1489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>1</v>
       </c>
@@ -1507,7 +1503,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>2</v>
       </c>
@@ -1521,7 +1517,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="56" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>3</v>
       </c>
@@ -1545,11 +1541,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692DA9A4-5D1E-40C9-8FE0-6DBF8AAC097A}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D11"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
@@ -1557,25 +1553,25 @@
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -1583,7 +1579,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -1592,7 +1588,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1600,10 +1596,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
@@ -1617,7 +1613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="105" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="98" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>1</v>
       </c>
@@ -1631,7 +1627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="105" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="84" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>2</v>
       </c>
@@ -1645,21 +1641,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="17" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="18" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="19" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1670,36 +1666,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8F74C6-CDB7-4BA9-9E9D-400DD2814AFA}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="141" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="141" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -1707,7 +1703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -1716,7 +1712,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1724,10 +1720,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
@@ -1741,7 +1737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>1</v>
       </c>
@@ -1755,7 +1751,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>2</v>
       </c>
@@ -1769,7 +1765,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>3</v>
       </c>
@@ -1783,13 +1779,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -1805,36 +1801,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38F5645-0415-42ED-9D08-03651B71959E}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="166" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="166" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -1842,7 +1838,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -1851,7 +1847,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1859,10 +1855,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
@@ -1876,7 +1872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="56" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -1890,7 +1886,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="70" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>5</v>
       </c>
@@ -1904,19 +1900,19 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -1932,36 +1928,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9EC673-7EF4-9946-BA7A-7D81DD7F10B8}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="166" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="166" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -1969,7 +1965,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -1978,7 +1974,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1986,10 +1982,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
@@ -2003,7 +1999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>1</v>
       </c>
@@ -2017,7 +2013,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>2</v>
       </c>
@@ -2031,19 +2027,19 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -2059,36 +2055,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E07AD1-F466-1843-9760-910D78E60074}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="166" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="166" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -2096,7 +2092,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -2105,7 +2101,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -2113,10 +2109,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
@@ -2130,7 +2126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="105" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="98" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>1</v>
       </c>
@@ -2144,7 +2140,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="13" customFormat="1" ht="105" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="84" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>2</v>
       </c>
@@ -2158,19 +2154,19 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -2187,35 +2183,35 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -2223,7 +2219,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -2232,7 +2228,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -2240,10 +2236,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
@@ -2257,7 +2253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="56" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>1</v>
       </c>
@@ -2271,7 +2267,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>2</v>
       </c>
@@ -2285,19 +2281,19 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -2313,36 +2309,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC23699-5522-D349-A5C8-F5BF9DDF1F2E}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="150" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -2350,7 +2346,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -2359,7 +2355,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -2367,10 +2363,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
@@ -2384,7 +2380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>1</v>
       </c>
@@ -2398,19 +2394,19 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -2430,32 +2426,32 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -2463,7 +2459,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -2472,7 +2468,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -2480,10 +2476,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
@@ -2497,7 +2493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>1</v>
       </c>
@@ -2511,7 +2507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>2</v>
       </c>
@@ -2525,13 +2521,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>

--- a/HT-6/Optica BAC-03-Ficha tecnica de un canal.xlsx
+++ b/HT-6/Optica BAC-03-Ficha tecnica de un canal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chech\Documents\GitHub\p3\arquiemp\HT-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA0A404-1648-4B4F-A37C-9CE71A9EDDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CC37F9-5CD0-440A-AE01-55879ED14C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="5" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
   <sheets>
     <sheet name="BAC-03-1" sheetId="1" r:id="rId1"/>
@@ -383,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -412,7 +412,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -729,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDEE2F-9DA5-4F4F-A9BF-B9BEA22ACD0E}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -829,24 +832,24 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="A12" s="6">
         <v>3</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+    <row r="13" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
@@ -2055,8 +2058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E07AD1-F466-1843-9760-910D78E60074}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="166" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="166" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
